--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_17_21.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_17_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>772220.6869641887</v>
+        <v>769519.4703127316</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673421</v>
+        <v>603248.4937673445</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>212.5689651179051</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -674,7 +674,7 @@
         <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.7138800015061</v>
+        <v>72.36698404190665</v>
       </c>
     </row>
     <row r="3">
@@ -738,13 +738,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150561</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,19 +783,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>16.66197659284166</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>139.8893526898414</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -823,22 +823,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>114.607771923411</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888211</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015061</v>
+        <v>77.75392192072621</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>316.556596689778</v>
       </c>
       <c r="D5" t="n">
-        <v>51.16130464657959</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>383.6877278154316</v>
+        <v>383.6877278154313</v>
       </c>
       <c r="G5" t="n">
         <v>12.41899097776993</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>99.30025118863685</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>143.3066953660375</v>
       </c>
       <c r="T5" t="n">
-        <v>210.4722490968155</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1149531848473</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -972,19 +972,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>69.01136890248041</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>95.77682125736924</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>135.8005767399402</v>
@@ -1023,16 +1023,16 @@
         <v>4.360182258713792</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>143.0237294698458</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.9455960238326</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8398728426018</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1041,7 +1041,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.266884697522094</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>87.60336766488713</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>150.7263422083602</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>116.5499160015377</v>
@@ -1102,7 +1102,7 @@
         <v>119.1307056315184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>201.4735595059546</v>
       </c>
       <c r="T7" t="n">
         <v>222.4186055422208</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>281.1704012211689</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>117.523540462315</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>245.5761046894317</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>83.30594927015912</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>307.6000736915297</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4696069132659</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>289.9775033393747</v>
+        <v>289.9775033393748</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>24.14662204184577</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615199</v>
+        <v>98.88510599615225</v>
       </c>
       <c r="T11" t="n">
-        <v>201.9388203544491</v>
+        <v>201.9388203544492</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.959002459687</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>204.5944599063974</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.757564313352</v>
+        <v>134.7575643133521</v>
       </c>
       <c r="H12" t="n">
-        <v>87.26058381812548</v>
+        <v>87.26058381812554</v>
       </c>
       <c r="I12" t="n">
-        <v>10.4884770553078</v>
+        <v>10.48847705530801</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>123.6502311075612</v>
+        <v>123.6502311075614</v>
       </c>
       <c r="T12" t="n">
         <v>189.7415240061373</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>95.51996494400703</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,16 +1534,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8230033569236</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.9518949665179</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905228</v>
+        <v>79.81330679905251</v>
       </c>
       <c r="S13" t="n">
-        <v>186.2346889920368</v>
+        <v>186.2346889920369</v>
       </c>
       <c r="T13" t="n">
         <v>218.682419239904</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2007761200435</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>17.53779970793098</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695436</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740359</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.294712846224</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>9.570729811035903</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,10 +2011,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>140.5758943588669</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>193.950737979561</v>
       </c>
     </row>
     <row r="20">
@@ -2135,7 +2135,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503964</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>36.43062059490404</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>35.41770597126667</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2615,7 +2615,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174121</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2716,13 +2716,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699793</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>157.0680868942514</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2795,7 +2795,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444144</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2950,19 +2950,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.24347904696321</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3092,7 +3092,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3190,13 +3190,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>1.79977260571556</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>107.4021082756253</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3329,7 +3329,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3427,13 +3427,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>3.006892987833737</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>41.02686156550107</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3664,16 +3664,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833791</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>74.99129529219034</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,19 +3898,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503964</v>
       </c>
       <c r="D43" t="n">
-        <v>74.99129529219107</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -4031,7 +4031,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4135,10 +4135,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9815576456777</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4147,7 +4147,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>107.4021082756233</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>573.7617370571243</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="C2" t="n">
-        <v>573.7617370571243</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="D2" t="n">
-        <v>307.3840804899463</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="E2" t="n">
-        <v>307.3840804899463</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F2" t="n">
-        <v>300.4385797407429</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G2" t="n">
-        <v>287.4747669672984</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917624</v>
+        <v>49.28269087917587</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052547</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515912</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030611</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991323</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358418</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>646.859700735818</v>
       </c>
       <c r="V2" t="n">
-        <v>1054.855520006025</v>
+        <v>380.48204416864</v>
       </c>
       <c r="W2" t="n">
-        <v>1054.855520006025</v>
+        <v>380.48204416864</v>
       </c>
       <c r="X2" t="n">
-        <v>1054.855520006025</v>
+        <v>380.48204416864</v>
       </c>
       <c r="Y2" t="n">
-        <v>788.4778634388466</v>
+        <v>307.3840804899464</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>388.8500079298782</v>
+        <v>180.334565405576</v>
       </c>
       <c r="C3" t="n">
-        <v>214.3969786487511</v>
+        <v>180.334565405576</v>
       </c>
       <c r="D3" t="n">
-        <v>65.46256898749989</v>
+        <v>180.334565405576</v>
       </c>
       <c r="E3" t="n">
-        <v>65.46256898749989</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F3" t="n">
-        <v>65.46256898749989</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G3" t="n">
-        <v>65.46256898749989</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749989</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699347</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302313</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267551</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N3" t="n">
-        <v>739.52866342936</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560897</v>
+        <v>813.1187583557301</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891336</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>906.2192216098642</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>906.2192216098642</v>
+        <v>1019.689356826106</v>
       </c>
       <c r="U3" t="n">
-        <v>906.2192216098642</v>
+        <v>791.5535108629197</v>
       </c>
       <c r="V3" t="n">
-        <v>764.916845155479</v>
+        <v>556.4014026311769</v>
       </c>
       <c r="W3" t="n">
-        <v>764.916845155479</v>
+        <v>556.4014026311769</v>
       </c>
       <c r="X3" t="n">
-        <v>557.0653449499462</v>
+        <v>348.5499024256441</v>
       </c>
       <c r="Y3" t="n">
-        <v>557.0653449499462</v>
+        <v>348.5499024256441</v>
       </c>
     </row>
     <row r="4">
@@ -4462,43 +4462,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>452.8983006840409</v>
+        <v>484.4695121254205</v>
       </c>
       <c r="C4" t="n">
-        <v>452.8983006840409</v>
+        <v>484.4695121254205</v>
       </c>
       <c r="D4" t="n">
-        <v>452.8983006840409</v>
+        <v>484.4695121254205</v>
       </c>
       <c r="E4" t="n">
-        <v>452.8983006840409</v>
+        <v>336.5564185430274</v>
       </c>
       <c r="F4" t="n">
-        <v>306.0083531861305</v>
+        <v>189.666471045117</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2429270008669</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H4" t="n">
-        <v>36.32155393434485</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434485</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551008</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
         <v>918.4699372075543</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>719.2759572512189</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>719.2759572512189</v>
+        <v>829.3864837640391</v>
       </c>
       <c r="U4" t="n">
-        <v>719.2759572512189</v>
+        <v>563.0088271968611</v>
       </c>
       <c r="V4" t="n">
-        <v>719.2759572512189</v>
+        <v>563.0088271968611</v>
       </c>
       <c r="W4" t="n">
-        <v>452.8983006840409</v>
+        <v>484.4695121254205</v>
       </c>
       <c r="X4" t="n">
-        <v>452.8983006840409</v>
+        <v>484.4695121254205</v>
       </c>
       <c r="Y4" t="n">
-        <v>452.8983006840409</v>
+        <v>484.4695121254205</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>582.7841845165658</v>
+        <v>1136.345205654771</v>
       </c>
       <c r="C5" t="n">
-        <v>582.7841845165658</v>
+        <v>816.5910675842881</v>
       </c>
       <c r="D5" t="n">
-        <v>531.1060990149703</v>
+        <v>816.5910675842881</v>
       </c>
       <c r="E5" t="n">
-        <v>531.1060990149703</v>
+        <v>430.8028149860439</v>
       </c>
       <c r="F5" t="n">
-        <v>143.5427375852414</v>
+        <v>43.23945355631524</v>
       </c>
       <c r="G5" t="n">
-        <v>130.9983022541606</v>
+        <v>30.69501822523451</v>
       </c>
       <c r="H5" t="n">
-        <v>130.9983022541606</v>
+        <v>30.69501822523451</v>
       </c>
       <c r="I5" t="n">
-        <v>30.69501822523453</v>
+        <v>30.69501822523451</v>
       </c>
       <c r="J5" t="n">
-        <v>93.76641159275152</v>
+        <v>93.76641159275158</v>
       </c>
       <c r="K5" t="n">
         <v>239.0325989245565</v>
@@ -4574,43 +4574,43 @@
         <v>456.1499114825638</v>
       </c>
       <c r="M5" t="n">
-        <v>729.4041931748868</v>
+        <v>729.4041931748864</v>
       </c>
       <c r="N5" t="n">
-        <v>1011.693823202381</v>
+        <v>1011.69382320238</v>
       </c>
       <c r="O5" t="n">
-        <v>1264.916654798415</v>
+        <v>1264.916654798414</v>
       </c>
       <c r="P5" t="n">
-        <v>1446.535482189412</v>
+        <v>1446.535482189411</v>
       </c>
       <c r="Q5" t="n">
-        <v>1534.750911261726</v>
+        <v>1534.750911261725</v>
       </c>
       <c r="R5" t="n">
-        <v>1534.750911261726</v>
+        <v>1534.750911261725</v>
       </c>
       <c r="S5" t="n">
-        <v>1534.750911261726</v>
+        <v>1389.996673518253</v>
       </c>
       <c r="T5" t="n">
-        <v>1322.152679850802</v>
+        <v>1389.996673518253</v>
       </c>
       <c r="U5" t="n">
-        <v>1322.152679850802</v>
+        <v>1136.345205654771</v>
       </c>
       <c r="V5" t="n">
-        <v>1322.152679850802</v>
+        <v>1136.345205654771</v>
       </c>
       <c r="W5" t="n">
-        <v>969.3840245806875</v>
+        <v>1136.345205654771</v>
       </c>
       <c r="X5" t="n">
-        <v>969.3840245806875</v>
+        <v>1136.345205654771</v>
       </c>
       <c r="Y5" t="n">
-        <v>969.3840245806875</v>
+        <v>1136.345205654771</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>692.2821940392187</v>
+        <v>264.6115818588805</v>
       </c>
       <c r="C6" t="n">
-        <v>622.5737406023698</v>
+        <v>264.6115818588805</v>
       </c>
       <c r="D6" t="n">
-        <v>473.6393309411184</v>
+        <v>264.6115818588805</v>
       </c>
       <c r="E6" t="n">
-        <v>314.4018759356629</v>
+        <v>167.8673179625479</v>
       </c>
       <c r="F6" t="n">
         <v>167.8673179625479</v>
       </c>
       <c r="G6" t="n">
-        <v>30.69501822523453</v>
+        <v>30.69501822523451</v>
       </c>
       <c r="H6" t="n">
-        <v>30.69501822523453</v>
+        <v>30.69501822523451</v>
       </c>
       <c r="I6" t="n">
-        <v>30.69501822523453</v>
+        <v>30.69501822523451</v>
       </c>
       <c r="J6" t="n">
-        <v>49.44206107563436</v>
+        <v>49.44206107563434</v>
       </c>
       <c r="K6" t="n">
-        <v>159.6385680169449</v>
+        <v>159.6385680169448</v>
       </c>
       <c r="L6" t="n">
-        <v>354.1339118482971</v>
+        <v>354.133911848297</v>
       </c>
       <c r="M6" t="n">
         <v>600.4576725190432</v>
       </c>
       <c r="N6" t="n">
-        <v>867.7095350912657</v>
+        <v>889.0545187259729</v>
       </c>
       <c r="O6" t="n">
-        <v>1089.972982256784</v>
+        <v>1111.317965891492</v>
       </c>
       <c r="P6" t="n">
-        <v>1270.370911090181</v>
+        <v>1270.37091109018</v>
       </c>
       <c r="Q6" t="n">
-        <v>1534.750911261726</v>
+        <v>1534.750911261725</v>
       </c>
       <c r="R6" t="n">
-        <v>1530.346686757975</v>
+        <v>1530.346686757974</v>
       </c>
       <c r="S6" t="n">
-        <v>1530.346686757975</v>
+        <v>1385.878273152069</v>
       </c>
       <c r="T6" t="n">
-        <v>1530.346686757975</v>
+        <v>1189.973630703753</v>
       </c>
       <c r="U6" t="n">
-        <v>1530.346686757975</v>
+        <v>961.8525470243576</v>
       </c>
       <c r="V6" t="n">
-        <v>1530.346686757975</v>
+        <v>726.7004387926149</v>
       </c>
       <c r="W6" t="n">
-        <v>1276.109330029773</v>
+        <v>472.4630820644133</v>
       </c>
       <c r="X6" t="n">
-        <v>1068.257829824241</v>
+        <v>264.6115818588805</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.4975310592868</v>
+        <v>264.6115818588805</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>595.4740776993743</v>
+        <v>236.9104562721283</v>
       </c>
       <c r="C7" t="n">
-        <v>595.4740776993743</v>
+        <v>148.4222061055756</v>
       </c>
       <c r="D7" t="n">
-        <v>595.4740776993743</v>
+        <v>148.4222061055756</v>
       </c>
       <c r="E7" t="n">
-        <v>447.5609841169812</v>
+        <v>148.4222061055756</v>
       </c>
       <c r="F7" t="n">
-        <v>300.6710366190708</v>
+        <v>148.4222061055756</v>
       </c>
       <c r="G7" t="n">
-        <v>300.6710366190708</v>
+        <v>148.4222061055756</v>
       </c>
       <c r="H7" t="n">
-        <v>148.4222061055757</v>
+        <v>148.4222061055756</v>
       </c>
       <c r="I7" t="n">
-        <v>30.69501822523453</v>
+        <v>30.69501822523451</v>
       </c>
       <c r="J7" t="n">
-        <v>30.69501822523453</v>
+        <v>30.69501822523451</v>
       </c>
       <c r="K7" t="n">
         <v>157.4322756223268</v>
@@ -4750,25 +4750,25 @@
         <v>1113.866490402742</v>
       </c>
       <c r="S7" t="n">
-        <v>1113.866490402742</v>
+        <v>910.3578444371311</v>
       </c>
       <c r="T7" t="n">
-        <v>889.2012322792865</v>
+        <v>685.6925863136757</v>
       </c>
       <c r="U7" t="n">
-        <v>889.2012322792865</v>
+        <v>685.6925863136757</v>
       </c>
       <c r="V7" t="n">
-        <v>889.2012322792865</v>
+        <v>685.6925863136757</v>
       </c>
       <c r="W7" t="n">
-        <v>599.7840622423259</v>
+        <v>685.6925863136757</v>
       </c>
       <c r="X7" t="n">
-        <v>599.7840622423259</v>
+        <v>457.7030354156584</v>
       </c>
       <c r="Y7" t="n">
-        <v>599.7840622423259</v>
+        <v>236.9104562721283</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1110.088185601308</v>
+        <v>970.5047989601117</v>
       </c>
       <c r="C8" t="n">
-        <v>826.0776793172992</v>
+        <v>601.5422820197</v>
       </c>
       <c r="D8" t="n">
-        <v>826.0776793172992</v>
+        <v>243.2765834129495</v>
       </c>
       <c r="E8" t="n">
-        <v>440.2894267190549</v>
+        <v>243.2765834129495</v>
       </c>
       <c r="F8" t="n">
-        <v>433.3439259698515</v>
+        <v>236.331082663746</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
@@ -4802,16 +4802,16 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926625</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2184.059060190805</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="V8" t="n">
-        <v>1852.996172847234</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="W8" t="n">
-        <v>1500.22751757712</v>
+        <v>1747.243971000045</v>
       </c>
       <c r="X8" t="n">
-        <v>1500.22751757712</v>
+        <v>1747.243971000045</v>
       </c>
       <c r="Y8" t="n">
-        <v>1110.088185601308</v>
+        <v>1357.104639024233</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I9" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>684.9695361605189</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625329</v>
+        <v>979.6730931919907</v>
       </c>
       <c r="M9" t="n">
-        <v>1227.201367341571</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N9" t="n">
-        <v>1614.486495938516</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O9" t="n">
-        <v>1946.556931114678</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4914,16 +4914,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>368.0960630783031</v>
+        <v>498.0154176992257</v>
       </c>
       <c r="C10" t="n">
-        <v>199.1598801503962</v>
+        <v>498.0154176992257</v>
       </c>
       <c r="D10" t="n">
-        <v>199.1598801503962</v>
+        <v>347.89877828689</v>
       </c>
       <c r="E10" t="n">
-        <v>51.2467865680031</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
         <v>51.2467865680031</v>
@@ -4960,25 +4960,25 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4987,25 +4987,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234358</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T10" t="n">
         <v>1216.838891429094</v>
       </c>
       <c r="U10" t="n">
-        <v>927.7205539329314</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V10" t="n">
-        <v>673.0360657270445</v>
+        <v>679.6638825294655</v>
       </c>
       <c r="W10" t="n">
-        <v>673.0360657270445</v>
+        <v>679.6638825294655</v>
       </c>
       <c r="X10" t="n">
-        <v>588.8886422218333</v>
+        <v>679.6638825294655</v>
       </c>
       <c r="Y10" t="n">
-        <v>368.0960630783031</v>
+        <v>679.6638825294655</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2309.062372439461</v>
+        <v>1485.490329133566</v>
       </c>
       <c r="C11" t="n">
-        <v>1940.099855499049</v>
+        <v>1116.527812193154</v>
       </c>
       <c r="D11" t="n">
-        <v>1581.834156892299</v>
+        <v>1116.527812193155</v>
       </c>
       <c r="E11" t="n">
-        <v>1196.045904294054</v>
+        <v>805.8206670501954</v>
       </c>
       <c r="F11" t="n">
-        <v>785.0599995044468</v>
+        <v>394.8347622605879</v>
       </c>
       <c r="G11" t="n">
-        <v>370.4442349455923</v>
+        <v>394.8347622605879</v>
       </c>
       <c r="H11" t="n">
-        <v>77.53766591592087</v>
+        <v>101.9281932309163</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592087</v>
+        <v>77.53766591592061</v>
       </c>
       <c r="J11" t="n">
         <v>304.4060796706899</v>
       </c>
       <c r="K11" t="n">
-        <v>695.161540565698</v>
+        <v>695.1615405656967</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.830004625333</v>
+        <v>1216.830004625329</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.956123087835</v>
+        <v>1828.956123087829</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.600890484047</v>
+        <v>2455.60089048404</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535302</v>
+        <v>3033.988513535293</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967480001</v>
+        <v>3493.127967479991</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.749829464067</v>
+        <v>3789.749829464056</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796043</v>
+        <v>3876.883295796031</v>
       </c>
       <c r="S11" t="n">
-        <v>3776.999350345384</v>
+        <v>3776.999350345372</v>
       </c>
       <c r="T11" t="n">
-        <v>3573.020743926748</v>
+        <v>3573.020743926736</v>
       </c>
       <c r="U11" t="n">
-        <v>3573.020743926748</v>
+        <v>3319.526802048264</v>
       </c>
       <c r="V11" t="n">
-        <v>3241.957856583178</v>
+        <v>2988.463914704694</v>
       </c>
       <c r="W11" t="n">
-        <v>2889.189201313063</v>
+        <v>2635.695259434579</v>
       </c>
       <c r="X11" t="n">
-        <v>2515.723443051983</v>
+        <v>2262.2295011735</v>
       </c>
       <c r="Y11" t="n">
-        <v>2309.062372439461</v>
+        <v>1872.090169197688</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>618.1648558508402</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9274008453847</v>
+        <v>458.9274008453848</v>
       </c>
       <c r="F12" t="n">
         <v>312.3928428722697</v>
@@ -5112,34 +5112,34 @@
         <v>176.274091040601</v>
       </c>
       <c r="H12" t="n">
-        <v>88.13208718390854</v>
+        <v>88.13208718390851</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592087</v>
+        <v>77.53766591592061</v>
       </c>
       <c r="J12" t="n">
-        <v>84.53144813503889</v>
+        <v>193.8410919870408</v>
       </c>
       <c r="K12" t="n">
-        <v>84.53144813503889</v>
+        <v>470.7769964046647</v>
       </c>
       <c r="L12" t="n">
-        <v>503.2284887929911</v>
+        <v>889.4740370626155</v>
       </c>
       <c r="M12" t="n">
-        <v>1011.18505474952</v>
+        <v>1397.430603019143</v>
       </c>
       <c r="N12" t="n">
-        <v>1546.994364450731</v>
+        <v>1532.266717861147</v>
       </c>
       <c r="O12" t="n">
-        <v>2014.935408783254</v>
+        <v>2000.207762193669</v>
       </c>
       <c r="P12" t="n">
-        <v>2371.166285028029</v>
+        <v>2356.438638438442</v>
       </c>
       <c r="Q12" t="n">
-        <v>2559.377995458575</v>
+        <v>2544.650348868987</v>
       </c>
       <c r="R12" t="n">
         <v>2559.377995458575</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>558.3676855341727</v>
+        <v>394.3869424262207</v>
       </c>
       <c r="C13" t="n">
-        <v>389.4315026062658</v>
+        <v>225.4507594983137</v>
       </c>
       <c r="D13" t="n">
-        <v>389.4315026062658</v>
+        <v>225.4507594983137</v>
       </c>
       <c r="E13" t="n">
-        <v>389.4315026062658</v>
+        <v>77.53766591592061</v>
       </c>
       <c r="F13" t="n">
-        <v>389.4315026062658</v>
+        <v>77.53766591592061</v>
       </c>
       <c r="G13" t="n">
-        <v>221.9335194174541</v>
+        <v>77.53766591592061</v>
       </c>
       <c r="H13" t="n">
-        <v>77.53766591592087</v>
+        <v>77.53766591592061</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592087</v>
+        <v>77.53766591592061</v>
       </c>
       <c r="J13" t="n">
-        <v>136.8552218758651</v>
+        <v>136.8552218758646</v>
       </c>
       <c r="K13" t="n">
-        <v>364.169024664815</v>
+        <v>364.1690246648139</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344818</v>
+        <v>710.57886543448</v>
       </c>
       <c r="M13" t="n">
-        <v>1086.208595376941</v>
+        <v>1086.208595376938</v>
       </c>
       <c r="N13" t="n">
-        <v>1458.341306336949</v>
+        <v>1458.341306336946</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818666</v>
+        <v>1786.049800818662</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.940349010725</v>
+        <v>2042.94034901072</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.36296874281</v>
+        <v>2137.362968742805</v>
       </c>
       <c r="R13" t="n">
-        <v>2056.743466925586</v>
+        <v>2056.74346692558</v>
       </c>
       <c r="S13" t="n">
-        <v>1868.627619458882</v>
+        <v>1868.627619458876</v>
       </c>
       <c r="T13" t="n">
-        <v>1647.736286893323</v>
+        <v>1647.736286893317</v>
       </c>
       <c r="U13" t="n">
-        <v>1647.736286893323</v>
+        <v>1358.644593842768</v>
       </c>
       <c r="V13" t="n">
-        <v>1393.051798687436</v>
+        <v>1103.960105636881</v>
       </c>
       <c r="W13" t="n">
-        <v>1103.634628650475</v>
+        <v>814.5429355999206</v>
       </c>
       <c r="X13" t="n">
-        <v>875.6450777524575</v>
+        <v>796.8279863999906</v>
       </c>
       <c r="Y13" t="n">
-        <v>654.8524986089272</v>
+        <v>576.0354072564604</v>
       </c>
     </row>
     <row r="14">
@@ -5270,22 +5270,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
@@ -5294,10 +5294,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797186</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1026.887310050512</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>951.7772127656167</v>
+        <v>513.8536007400724</v>
       </c>
       <c r="C16" t="n">
-        <v>782.8410298377098</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253735</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429804</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429804</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578603</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L16" t="n">
         <v>826.1405381797745</v>
@@ -5449,37 +5449,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X16" t="n">
-        <v>1354.218256739387</v>
+        <v>916.2946447138422</v>
       </c>
       <c r="Y16" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703121</v>
       </c>
     </row>
     <row r="17">
@@ -5510,31 +5510,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>727.9786782557277</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C19" t="n">
-        <v>559.0424953278208</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>408.925855915485</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5677,10 +5677,10 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
@@ -5689,34 +5689,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1902.510931370362</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1647.826443164475</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1358.409273127515</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1130.419722229498</v>
+        <v>916.2946447138418</v>
       </c>
       <c r="Y19" t="n">
-        <v>909.6271430859675</v>
+        <v>720.3848083708508</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,7 +5738,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5753,25 +5753,25 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5783,16 +5783,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>506.2737913123336</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M21" t="n">
-        <v>1103.652278938886</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N21" t="n">
-        <v>1731.250242493492</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>763.7541388327644</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C22" t="n">
-        <v>594.8179559048575</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D22" t="n">
-        <v>444.7013164925218</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>444.7013164925216</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>297.8113689946113</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>130.6152697094911</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138404</v>
       </c>
       <c r="Y22" t="n">
-        <v>945.4026036630041</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="23">
@@ -5978,28 +5978,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6063,19 +6063,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>184.7035232280589</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>184.7035232280589</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L24" t="n">
-        <v>680.0291294438176</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>763.7541388327647</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>594.8179559048579</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="D25" t="n">
-        <v>444.7013164925221</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E25" t="n">
-        <v>296.788222910129</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>296.788222910129</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>129.5921236250089</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>129.5921236250089</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6148,10 +6148,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.4026036630045</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6206,10 +6206,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
@@ -6218,49 +6218,49 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
         <v>3467.980956852888</v>
@@ -6297,25 +6297,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>740.5562989961525</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M27" t="n">
-        <v>1337.934786622704</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>1337.934786622704</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
         <v>1859.536823237711</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>641.8461362382113</v>
+        <v>513.8536007400692</v>
       </c>
       <c r="C28" t="n">
-        <v>472.9099533103044</v>
+        <v>344.9174178121623</v>
       </c>
       <c r="D28" t="n">
-        <v>322.7933138979687</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>322.7933138979687</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6388,7 +6388,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6397,37 +6397,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.0893932798</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853359</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580258</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T28" t="n">
-        <v>2105.453616008648</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U28" t="n">
-        <v>1816.378389352846</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V28" t="n">
-        <v>1561.693901146959</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W28" t="n">
-        <v>1272.276731109999</v>
+        <v>1144.284195611856</v>
       </c>
       <c r="X28" t="n">
-        <v>1044.287180211981</v>
+        <v>916.294644713839</v>
       </c>
       <c r="Y28" t="n">
-        <v>823.4946010684511</v>
+        <v>695.5020655703089</v>
       </c>
     </row>
     <row r="29">
@@ -6440,31 +6440,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6482,28 +6482,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,10 +6534,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
@@ -6546,22 +6546,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1174.766565373399</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1802.364528928006</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O30" t="n">
-        <v>2354.274259167293</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G31" t="n">
         <v>93.81666304797189</v>
@@ -6622,7 +6622,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
         <v>826.1405381797744</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2389.141387573227</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2389.141387573227</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2169.539922596168</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1880.464695940366</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1625.780207734479</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1336.363037697518</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1108.373486799501</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y31" t="n">
-        <v>887.5809076559709</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6695,16 +6695,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6740,7 +6740,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,25 +6774,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>1307.627092998424</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.8686257536378</v>
+        <v>513.8536007400706</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121638</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782975</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038359</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797758</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2338.476105524075</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1056.517090583877</v>
+        <v>695.5020655703104</v>
       </c>
     </row>
     <row r="35">
@@ -6929,25 +6929,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,7 +6956,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6971,10 +6971,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
         <v>3094.515198591809</v>
@@ -7008,22 +7008,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>924.8344286397182</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M36" t="n">
-        <v>924.8344286397182</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>916.3099000622251</v>
+        <v>580.899304487669</v>
       </c>
       <c r="C37" t="n">
-        <v>747.3737171343183</v>
+        <v>411.9631215597622</v>
       </c>
       <c r="D37" t="n">
-        <v>597.2570777219826</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E37" t="n">
-        <v>449.3439841395895</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
-        <v>302.4540366416791</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>135.2579373565588</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
-        <v>135.2579373565588</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7105,40 +7105,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832662</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2379.917379832662</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>2090.84215317686</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1836.157664970973</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1546.740494934012</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1318.750944035995</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1097.958364892465</v>
+        <v>762.5477693179088</v>
       </c>
     </row>
     <row r="38">
@@ -7251,22 +7251,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P39" t="n">
         <v>2319.799627685893</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>724.7519863413022</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C40" t="n">
-        <v>555.8158034133953</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133953</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="G40" t="n">
         <v>93.81666304797187</v>
@@ -7333,10 +7333,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2188.359466111739</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1899.284239455937</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1644.59975125005</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1355.182581213089</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1127.193030315072</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>906.4004511715419</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="41">
@@ -7409,13 +7409,13 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014779</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1767.889897446606</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>800.5007694647277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>631.5645865368208</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7567,13 +7567,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>982.1492342949674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7640,58 +7640,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7719,22 +7719,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K45" t="n">
-        <v>95.58405025273903</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>590.9096564684977</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>874.8686257536383</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257314</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133958</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
         <v>826.1405381797742</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2338.476105524075</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1505.299220625426</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y46" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761156</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418294</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
-        <v>97.32166909127284</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>97.32166909127245</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8304,13 +8304,13 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>21.56058953000718</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>21.5605895300082</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8529,31 +8529,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>273.6534998179983</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>138.9393975111051</v>
       </c>
       <c r="P9" t="n">
-        <v>45.76488231024575</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>74.33029638073208</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184535</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.959002459687</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>181.6434787496562</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>84.31201523793027</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927367</v>
+        <v>90.25352389927382</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2007761200435</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>208.1718556811062</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>45.44677382459197</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>216.1389255780012</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,10 +23899,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>145.6085800303772</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>24.63391537253381</v>
       </c>
     </row>
     <row r="20">
@@ -24127,22 +24127,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>46.45968844823144</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>103.8640922513198</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>45.84813034729886</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24604,13 +24604,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>46.45968844823304</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -24619,7 +24619,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>60.33736343303687</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24838,19 +24838,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>46.45968844823108</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.131767663158371</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25078,13 +25078,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>146.8157004124968</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>73.62417772601933</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25315,13 +25315,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>145.6085800303786</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>40.23897475306446</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25552,16 +25552,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>65.54986409393094</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>142.4141550350979</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25786,19 +25786,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>46.45968844823147</v>
       </c>
       <c r="D43" t="n">
-        <v>73.62417772602129</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26023,10 +26023,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>43.26526345295009</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26035,7 +26035,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>73.62417772602129</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>907790.8716413457</v>
+        <v>907790.8716413444</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>999123.6320254672</v>
+        <v>999123.6320254671</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>999123.6320254672</v>
+        <v>999123.6320254671</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>999123.6320254672</v>
+        <v>999123.6320254671</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>999123.6320254672</v>
+        <v>999123.632025467</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>999123.6320254671</v>
+        <v>999123.632025467</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>999123.6320254672</v>
+        <v>999123.6320254671</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>999123.6320254672</v>
+        <v>999123.6320254671</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>999123.6320254672</v>
+        <v>999123.632025467</v>
       </c>
     </row>
   </sheetData>
@@ -26317,10 +26317,10 @@
         <v>431046.9291787485</v>
       </c>
       <c r="D2" t="n">
-        <v>431046.9291787487</v>
+        <v>431046.9291787488</v>
       </c>
       <c r="E2" t="n">
-        <v>384609.3532440583</v>
+        <v>384609.3532440578</v>
       </c>
       <c r="F2" t="n">
         <v>423751.9648372532</v>
@@ -26329,31 +26329,31 @@
         <v>423751.9648372533</v>
       </c>
       <c r="H2" t="n">
+        <v>423751.964837253</v>
+      </c>
+      <c r="I2" t="n">
+        <v>423751.964837253</v>
+      </c>
+      <c r="J2" t="n">
+        <v>423751.9648372531</v>
+      </c>
+      <c r="K2" t="n">
+        <v>423751.9648372531</v>
+      </c>
+      <c r="L2" t="n">
         <v>423751.9648372532</v>
       </c>
-      <c r="I2" t="n">
+      <c r="M2" t="n">
+        <v>423751.9648372531</v>
+      </c>
+      <c r="N2" t="n">
+        <v>423751.9648372533</v>
+      </c>
+      <c r="O2" t="n">
+        <v>423751.964837253</v>
+      </c>
+      <c r="P2" t="n">
         <v>423751.9648372532</v>
-      </c>
-      <c r="J2" t="n">
-        <v>423751.9648372532</v>
-      </c>
-      <c r="K2" t="n">
-        <v>423751.9648372532</v>
-      </c>
-      <c r="L2" t="n">
-        <v>423751.9648372533</v>
-      </c>
-      <c r="M2" t="n">
-        <v>423751.964837253</v>
-      </c>
-      <c r="N2" t="n">
-        <v>423751.9648372532</v>
-      </c>
-      <c r="O2" t="n">
-        <v>423751.9648372532</v>
-      </c>
-      <c r="P2" t="n">
-        <v>423751.964837253</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911928</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
-        <v>132804.2190657077</v>
+        <v>132804.2190657074</v>
       </c>
       <c r="D3" t="n">
-        <v>265413.0723929371</v>
+        <v>265413.0723929374</v>
       </c>
       <c r="E3" t="n">
-        <v>313577.157354579</v>
+        <v>313577.1573545757</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704273</v>
+        <v>189308.2687704306</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911407</v>
+        <v>68999.15441911403</v>
       </c>
       <c r="K3" t="n">
-        <v>30877.42926417436</v>
+        <v>30877.4292641744</v>
       </c>
       <c r="L3" t="n">
         <v>65018.34502049552</v>
       </c>
       <c r="M3" t="n">
-        <v>81897.40371273123</v>
+        <v>81897.4037127304</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202316</v>
+        <v>49839.57413202402</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>251227.3656190198</v>
       </c>
       <c r="C4" t="n">
-        <v>215494.7982664852</v>
+        <v>215494.7982664853</v>
       </c>
       <c r="D4" t="n">
         <v>140338.6838374607</v>
       </c>
       <c r="E4" t="n">
-        <v>11061.61369214698</v>
+        <v>11061.61369214697</v>
       </c>
       <c r="F4" t="n">
-        <v>11167.03225179356</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="G4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179353</v>
       </c>
       <c r="H4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179352</v>
       </c>
       <c r="I4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="J4" t="n">
-        <v>11167.03225179354</v>
+        <v>11167.03225179353</v>
       </c>
       <c r="K4" t="n">
-        <v>11167.03225179354</v>
+        <v>11167.03225179349</v>
       </c>
       <c r="L4" t="n">
-        <v>11167.03225179354</v>
+        <v>11167.03225179353</v>
       </c>
       <c r="M4" t="n">
-        <v>11167.03225179353</v>
+        <v>11167.03225179356</v>
       </c>
       <c r="N4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="O4" t="n">
-        <v>11167.03225179353</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="P4" t="n">
-        <v>11167.03225179353</v>
+        <v>11167.03225179356</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
         <v>72593.65038667497</v>
@@ -26476,7 +26476,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.4850673858</v>
+        <v>85137.48506738555</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-563316.2202357303</v>
+        <v>-563316.2202357305</v>
       </c>
       <c r="C6" t="n">
-        <v>10154.26145988065</v>
+        <v>10154.26145988083</v>
       </c>
       <c r="D6" t="n">
-        <v>-67642.59949149381</v>
+        <v>-67642.59949149395</v>
       </c>
       <c r="E6" t="n">
-        <v>-25166.90287005353</v>
+        <v>-25388.03418402515</v>
       </c>
       <c r="F6" t="n">
-        <v>122154.1339911252</v>
+        <v>122119.3960656863</v>
       </c>
       <c r="G6" t="n">
-        <v>311462.4027615527</v>
+        <v>311427.6648361171</v>
       </c>
       <c r="H6" t="n">
-        <v>311462.4027615525</v>
+        <v>311427.6648361167</v>
       </c>
       <c r="I6" t="n">
-        <v>311462.4027615525</v>
+        <v>311427.6648361167</v>
       </c>
       <c r="J6" t="n">
-        <v>242463.2483424385</v>
+        <v>242428.5104170027</v>
       </c>
       <c r="K6" t="n">
-        <v>280584.9734973781</v>
+        <v>280550.2355719424</v>
       </c>
       <c r="L6" t="n">
-        <v>246444.0577410571</v>
+        <v>246409.3198156212</v>
       </c>
       <c r="M6" t="n">
-        <v>229564.9990488211</v>
+        <v>229530.2611233864</v>
       </c>
       <c r="N6" t="n">
-        <v>261622.8286295294</v>
+        <v>261588.0907040929</v>
       </c>
       <c r="O6" t="n">
-        <v>311462.4027615525</v>
+        <v>311427.6648361166</v>
       </c>
       <c r="P6" t="n">
-        <v>311462.4027615523</v>
+        <v>311427.6648361168</v>
       </c>
     </row>
   </sheetData>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694781</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
         <v>717.3319511695752</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
-        <v>1202.241237214952</v>
+        <v>1202.241237214949</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>383.6877278154316</v>
+        <v>383.6877278154313</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490108</v>
+        <v>969.2208239490077</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26814,7 +26814,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694781</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>103.276937400097</v>
+        <v>103.2769374000968</v>
       </c>
       <c r="D3" t="n">
-        <v>216.7329409479639</v>
+        <v>216.7329409479642</v>
       </c>
       <c r="E3" t="n">
-        <v>268.1763450974126</v>
+        <v>268.1763450974097</v>
       </c>
       <c r="F3" t="n">
-        <v>165.734263126722</v>
+        <v>165.734263126725</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>119.9738478139254</v>
+        <v>119.9738478139251</v>
       </c>
       <c r="D4" t="n">
-        <v>256.8971042846072</v>
+        <v>256.8971042846074</v>
       </c>
       <c r="E4" t="n">
-        <v>328.635991848972</v>
+        <v>328.635991848969</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506374</v>
+        <v>203.4874641506407</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.713880001506</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139254</v>
+        <v>119.9738478139256</v>
       </c>
       <c r="L4" t="n">
         <v>256.8971042846072</v>
       </c>
       <c r="M4" t="n">
-        <v>328.635991848972</v>
+        <v>328.6359918489687</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506374</v>
+        <v>203.4874641506409</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139254</v>
+        <v>119.9738478139251</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846072</v>
+        <v>256.8971042846074</v>
       </c>
       <c r="M4" t="n">
-        <v>328.635991848972</v>
+        <v>328.635991848969</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506374</v>
+        <v>203.4874641506407</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>170.1648765455755</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>90.96916161917682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,7 +27394,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>50.47975262776185</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
         <v>115.3066195468971</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862871</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.5240586545474</v>
+        <v>313.870954614147</v>
       </c>
     </row>
     <row r="3">
@@ -27458,13 +27458,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27473,10 +27473,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,19 +27503,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.1525249552777</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>178.1790109920351</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>92.91123445958388</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27543,22 +27543,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>52.27589511513555</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248086</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>22.54475050117128</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>22.80911833508486</v>
+        <v>208.7690764158648</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>48.71629508122953</v>
       </c>
       <c r="D5" t="n">
-        <v>303.5217369741034</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>23.18831792627986</v>
+        <v>23.18831792628009</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>309.9416328899766</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>99.30025118863685</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3066953660375</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>210.4722490968155</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1149531848473</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27692,19 +27692,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>103.6971300858353</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>61.86825919803171</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27743,16 +27743,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>143.0237294698458</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.9455960238326</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8398728426018</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>175.5650954844152</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>79.6434534337407</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.6974299383169</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>150.7263422083602</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27822,7 +27822,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>201.4735595059546</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>84.10249054983865</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>294.024162310639</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28026,7 +28026,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28068,16 +28068,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>6.561538634396328</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>142.403706118878</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>9.426059932593489e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28749,7 +28749,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>9.186815169423518e-13</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -29284,7 +29284,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29335,7 +29335,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29469,7 +29469,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>-1.940255363782247e-12</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -29515,7 +29515,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29812,7 +29812,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -29928,7 +29928,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>1.837363033884704e-12</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30049,7 +30049,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30694,7 +30694,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -30751,7 +30751,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350879</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
-        <v>209.5161878388633</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
-        <v>389.5577350167917</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658378</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
-        <v>354.9824263269072</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.577018565623</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R2" t="n">
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702306</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1974850295540028</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320797576787179</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H3" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990947</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
-        <v>213.2798437919894</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
-        <v>334.6599825043655</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N3" t="n">
-        <v>343.5174364293989</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480711</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736543</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
-        <v>24.53323569163904</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944813</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0868945774202092</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,22 +31197,22 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.107312319912173</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582787</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
-        <v>33.29990140244974</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779067</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
-        <v>164.6271425440335</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M4" t="n">
         <v>173.576239384051</v>
@@ -31221,25 +31221,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
-        <v>133.9243918555595</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.7223070791912</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350554</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.73124354871565</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31607,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869149</v>
+        <v>4.833130601869138</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639243</v>
+        <v>49.49729877639233</v>
       </c>
       <c r="I11" t="n">
-        <v>186.3292675285606</v>
+        <v>186.3292675285601</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203921</v>
+        <v>410.2059184203911</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975133</v>
+        <v>614.7923367975119</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544664</v>
+        <v>762.7042574544647</v>
       </c>
       <c r="M11" t="n">
-        <v>848.6554437954568</v>
+        <v>848.655443795455</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180176</v>
+        <v>862.3875761180157</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956812</v>
+        <v>814.3281336956794</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620366</v>
+        <v>695.010221962035</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825975</v>
+        <v>521.9237322825962</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696632</v>
+        <v>303.5991401696625</v>
       </c>
       <c r="S11" t="n">
-        <v>110.1349635900933</v>
+        <v>110.1349635900931</v>
       </c>
       <c r="T11" t="n">
-        <v>21.15702920968221</v>
+        <v>21.15702920968216</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495319</v>
+        <v>0.386650448149531</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858576</v>
+        <v>2.58595284985857</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837098</v>
+        <v>24.97486041837093</v>
       </c>
       <c r="I12" t="n">
-        <v>89.0339029446922</v>
+        <v>89.03390294469199</v>
       </c>
       <c r="J12" t="n">
-        <v>133.9020531506243</v>
+        <v>244.3158348193134</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>417.5746757598376</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747754</v>
+        <v>561.4806834747741</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821486</v>
+        <v>655.2214742821471</v>
       </c>
       <c r="N12" t="n">
-        <v>672.5632370340512</v>
+        <v>267.5398078833373</v>
       </c>
       <c r="O12" t="n">
-        <v>615.263965992448</v>
+        <v>615.2639659924466</v>
       </c>
       <c r="P12" t="n">
-        <v>493.8035753383451</v>
+        <v>493.8035753383439</v>
       </c>
       <c r="Q12" t="n">
-        <v>330.0946129047543</v>
+        <v>330.0946129047536</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>160.5559146605172</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627658</v>
+        <v>48.03293999627647</v>
       </c>
       <c r="T12" t="n">
-        <v>10.42320468868434</v>
+        <v>10.42320468868432</v>
       </c>
       <c r="U12" t="n">
-        <v>0.17012847696438</v>
+        <v>0.1701284769643797</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535159</v>
+        <v>2.167976001535154</v>
       </c>
       <c r="H13" t="n">
-        <v>19.2752775409217</v>
+        <v>19.27527754092165</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798461</v>
+        <v>65.19695102798447</v>
       </c>
       <c r="J13" t="n">
-        <v>153.2759033085357</v>
+        <v>153.2759033085354</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329029</v>
+        <v>251.8793936329023</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100544</v>
+        <v>322.3189048100537</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770067</v>
+        <v>339.8400926770059</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531032</v>
+        <v>331.7594548531025</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806242</v>
+        <v>306.4335533806235</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493067</v>
+        <v>262.2068429493061</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.5384268194577</v>
+        <v>181.5384268194573</v>
       </c>
       <c r="R13" t="n">
-        <v>97.4800845781172</v>
+        <v>97.48008457811697</v>
       </c>
       <c r="S13" t="n">
-        <v>37.78190904493543</v>
+        <v>37.78190904493535</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377494</v>
+        <v>9.263170188377472</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1182532364473724</v>
+        <v>0.1182532364473722</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>650.5350891770654</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,22 +32309,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32555,7 +32555,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>402.2342772868842</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32570,7 +32570,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>140.7358547888808</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32783,22 +32783,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>216.857296338707</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33029,16 +33029,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>533.6019216797995</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>669.466988500007</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33266,25 +33266,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>428.7353800421384</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>334.7693860946154</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,10 +33494,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33506,16 +33506,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>377.6350660745956</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
@@ -33734,19 +33734,19 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M36" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>518.0009690113193</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33971,7 +33971,7 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
@@ -33980,7 +33980,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>270.9486956727256</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33989,7 +33989,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>539.5330155967683</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
@@ -34205,10 +34205,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34220,19 +34220,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>381.285518532932</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,22 +34442,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M45" t="n">
-        <v>232.1537035940586</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217703</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664461</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186564</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441511</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117352</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>172.7600739089033</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823472</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460656</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>171.655098309828</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>118.2400000337409</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649636</v>
+        <v>125.9385470877689</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34872,10 +34872,10 @@
         <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.202951120453</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496811</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35024,13 +35024,13 @@
         <v>248.8118794654001</v>
       </c>
       <c r="N6" t="n">
-        <v>269.9513763355784</v>
+        <v>291.5119658655856</v>
       </c>
       <c r="O6" t="n">
         <v>224.508532490423</v>
       </c>
       <c r="P6" t="n">
-        <v>182.2201301347437</v>
+        <v>160.6595406047355</v>
       </c>
       <c r="Q6" t="n">
         <v>267.0505052237834</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>640.5848321000387</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>474.3640795072282</v>
       </c>
       <c r="P9" t="n">
-        <v>295.444411433778</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937058</v>
+        <v>229.1600138937048</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525327</v>
+        <v>394.7024857525313</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844792</v>
+        <v>526.9378424844774</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681841</v>
+        <v>618.3092105681823</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214267</v>
+        <v>632.9745125214247</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739945</v>
+        <v>584.2299222739927</v>
       </c>
       <c r="P11" t="n">
-        <v>463.777226206767</v>
+        <v>463.7772262067654</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.618042408148</v>
+        <v>299.6180424081467</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553108</v>
+        <v>88.0136023555304</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>7.064426483957593</v>
+        <v>117.4782081526467</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>279.7332367854786</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036949013</v>
+        <v>422.9263036948999</v>
       </c>
       <c r="M12" t="n">
-        <v>513.0874403601304</v>
+        <v>513.0874403601288</v>
       </c>
       <c r="N12" t="n">
-        <v>541.2215249507179</v>
+        <v>136.198095800004</v>
       </c>
       <c r="O12" t="n">
-        <v>472.6677215480036</v>
+        <v>472.6677215480022</v>
       </c>
       <c r="P12" t="n">
-        <v>359.8291679240148</v>
+        <v>359.8291679240137</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.1128388187328</v>
+        <v>190.1128388187321</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>14.87641069655328</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186293</v>
+        <v>59.91672319186259</v>
       </c>
       <c r="K13" t="n">
-        <v>229.6099018070201</v>
+        <v>229.6099018070195</v>
       </c>
       <c r="L13" t="n">
-        <v>349.9089300703706</v>
+        <v>349.9089300703698</v>
       </c>
       <c r="M13" t="n">
-        <v>379.4239696388473</v>
+        <v>379.4239696388465</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323318</v>
+        <v>375.8916272323311</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946638</v>
+        <v>331.0186812946632</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022142002</v>
+        <v>259.4854022141996</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776331</v>
+        <v>95.37638356776291</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>519.1933770937321</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35957,22 +35957,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36045,7 +36045,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191323</v>
       </c>
       <c r="M19" t="n">
         <v>426.2724270010451</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,7 +36203,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>263.67989750701</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36218,7 +36218,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789211</v>
@@ -36431,22 +36431,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>90.01966967204031</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,16 +36677,16 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>526.8707440555626</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36765,7 +36765,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060435</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,10 +37142,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37154,16 +37154,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>235.5010321525773</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295519</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37382,19 +37382,19 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>386.659256927986</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37628,7 +37628,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>128.8146617507074</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37637,7 +37637,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>405.558608182438</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
@@ -37853,10 +37853,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>249.9438064495987</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,22 +38090,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>285.360777932</v>
       </c>
       <c r="M45" t="n">
-        <v>90.01966967204032</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
